--- a/log data.xlsx
+++ b/log data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fatemeh\Music\AI\read-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56D9455-C08D-4D2C-8FBE-C9D92A78CA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AF4E6F-78DB-40F8-A613-7DD063C11D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,6 +29,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -347,289 +351,261 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="9.06640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1">
         <v>6.0000000000002718E-2</v>
       </c>
       <c r="B1" s="1">
-        <f>LOG(A1,10)</f>
-        <v>-1.2218487496163366</v>
+        <v>-1.2218500000000001</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0.16000000000000281</v>
       </c>
-      <c r="B2" s="1">
-        <f>LOG(A2,10)</f>
-        <v>-0.79588001734406755</v>
+      <c r="B2">
+        <v>-0.79588000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>0.2600000000000029</v>
       </c>
-      <c r="B3" s="1">
-        <f t="shared" ref="B3:B60" si="0">LOG(A3,10)</f>
-        <v>-0.58502665202917714</v>
+      <c r="B3">
+        <v>-0.58503000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.36000000000000298</v>
       </c>
-      <c r="B4" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.44369749923270907</v>
+      <c r="B4">
+        <v>-0.44369999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.46000000000000307</v>
       </c>
-      <c r="B5" s="1">
-        <f>LOG(A5,10)</f>
-        <v>-0.33724216831842302</v>
+      <c r="B5">
+        <v>-0.33723999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.56000000000000316</v>
       </c>
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.2518119729937971</v>
+      <c r="B6">
+        <v>-0.25180999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.66000000000000325</v>
       </c>
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.18045606445812917</v>
+      <c r="B7">
+        <v>-0.18046000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>0.76000000000000334</v>
       </c>
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.11918640771920674</v>
+      <c r="B8">
+        <v>-0.11919</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.86000000000000343</v>
       </c>
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>-6.5501548756430536E-2</v>
+      <c r="B9">
+        <v>-6.5500000000000003E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.96000000000000307</v>
       </c>
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.7728766960430194E-2</v>
+      <c r="B10">
+        <v>-1.7729999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>1.0600000000000041</v>
       </c>
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>2.5305865264771899E-2</v>
+      <c r="B11">
+        <v>-2.5305999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>1.1600000000000039</v>
       </c>
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>6.4457989226919934E-2</v>
+      <c r="B12">
+        <v>6.4458000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>1.260000000000004</v>
       </c>
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>0.10037054511756427</v>
+      <c r="B13">
+        <v>0.100371</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>1.360000000000003</v>
       </c>
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>0.13353890837021845</v>
+      <c r="B14">
+        <v>0.13353899999999999</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>1.460000000000004</v>
       </c>
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>0.16435285578443826</v>
+      <c r="B15">
+        <v>0.164353</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>1.5600000000000041</v>
       </c>
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>0.19312459835446272</v>
+      <c r="B16">
+        <v>0.19312499999999999</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>1.6600000000000039</v>
       </c>
-      <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>0.22010808804005608</v>
+      <c r="B17">
+        <v>0.220108</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>1.760000000000004</v>
       </c>
-      <c r="B18" s="1">
-        <f t="shared" si="0"/>
-        <v>0.24551266781415079</v>
+      <c r="B18">
+        <v>0.24551300000000001</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>1.8600000000000041</v>
       </c>
-      <c r="B19" s="1">
-        <f t="shared" si="0"/>
-        <v>0.26951294421791727</v>
+      <c r="B19">
+        <v>0.269513</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>1.9600000000000051</v>
       </c>
-      <c r="B20" s="1">
-        <f t="shared" si="0"/>
-        <v>0.29225607135647713</v>
+      <c r="B20">
+        <v>0.29225600000000002</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>2.0600000000000041</v>
       </c>
-      <c r="B21" s="1">
-        <f t="shared" si="0"/>
-        <v>0.31386722036915421</v>
+      <c r="B21">
+        <v>0.31386700000000001</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>2.1600000000000041</v>
       </c>
-      <c r="B22" s="1">
-        <f t="shared" si="0"/>
-        <v>0.33445375115093168</v>
+      <c r="B22">
+        <v>0.33445399999999997</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>2.2600000000000051</v>
       </c>
-      <c r="B23" s="1">
-        <f t="shared" si="0"/>
-        <v>0.35410843914740187</v>
+      <c r="B23">
+        <v>0.35410799999999998</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>2.3600000000000052</v>
       </c>
-      <c r="B24" s="1">
-        <f t="shared" si="0"/>
-        <v>0.37291200297010751</v>
+      <c r="B24">
+        <v>0.37291200000000002</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>2.4600000000000048</v>
       </c>
-      <c r="B25" s="1">
-        <f t="shared" si="0"/>
-        <v>0.39093510710337998</v>
+      <c r="B25">
+        <v>0.39093499999999998</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>2.5600000000000041</v>
       </c>
-      <c r="B26" s="1">
-        <f t="shared" si="0"/>
-        <v>0.40823996531185019</v>
+      <c r="B26">
+        <v>0.40823999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>2.660000000000005</v>
       </c>
-      <c r="B27" s="1">
-        <f t="shared" si="0"/>
-        <v>0.42488163663106776</v>
+      <c r="B27">
+        <v>0.42488199999999998</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>2.760000000000006</v>
       </c>
-      <c r="B28" s="1">
-        <f t="shared" si="0"/>
-        <v>0.44090908206521867</v>
+      <c r="B28">
+        <v>0.440909</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>2.8600000000000052</v>
       </c>
-      <c r="B29" s="1">
-        <f t="shared" si="0"/>
-        <v>0.45636603312904372</v>
+      <c r="B29">
+        <v>0.45636599999999999</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>2.9600000000000048</v>
       </c>
-      <c r="B30" s="1">
-        <f t="shared" si="0"/>
-        <v>0.4712917110589393</v>
+      <c r="B30">
+        <v>0.47129199999999999</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>3.0600000000000049</v>
       </c>
-      <c r="B31" s="1">
-        <f t="shared" si="0"/>
-        <v>0.48572142648158068</v>
+      <c r="B31">
+        <v>0.48572100000000001</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -637,260 +613,231 @@
         <v>3.1</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
-        <v>0.49136169383427264</v>
+        <v>0.49136200000000002</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>3.16</v>
       </c>
-      <c r="B33" s="1">
-        <f t="shared" si="0"/>
-        <v>0.49968708261840378</v>
+      <c r="B33">
+        <v>0.49968699999999999</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>3.26</v>
       </c>
-      <c r="B34" s="1">
-        <f t="shared" si="0"/>
-        <v>0.51321760006793893</v>
+      <c r="B34">
+        <v>0.51321799999999995</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>3.36</v>
       </c>
-      <c r="B35" s="1">
-        <f t="shared" si="0"/>
-        <v>0.52633927738984398</v>
+      <c r="B35">
+        <v>0.526339</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>3.46</v>
       </c>
-      <c r="B36" s="1">
-        <f t="shared" si="0"/>
-        <v>0.53907609879277651</v>
+      <c r="B36">
+        <v>0.539076</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>3.56</v>
       </c>
-      <c r="B37" s="1">
-        <f t="shared" si="0"/>
-        <v>0.55144999797287508</v>
+      <c r="B37">
+        <v>0.55145</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>3.66</v>
       </c>
-      <c r="B38" s="1">
-        <f t="shared" si="0"/>
-        <v>0.56348108539441066</v>
+      <c r="B38">
+        <v>0.56348100000000001</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>3.76</v>
       </c>
-      <c r="B39" s="1">
-        <f t="shared" si="0"/>
-        <v>0.57518784492766095</v>
+      <c r="B39">
+        <v>0.57518800000000003</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>3.86</v>
       </c>
-      <c r="B40" s="1">
-        <f t="shared" si="0"/>
-        <v>0.58658730467175491</v>
+      <c r="B40">
+        <v>0.58658699999999997</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>3.96</v>
       </c>
-      <c r="B41" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5976951859255123</v>
+      <c r="B41">
+        <v>0.59769499999999998</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>4.0599999999999996</v>
       </c>
-      <c r="B42" s="1">
-        <f t="shared" si="0"/>
-        <v>0.60852603357719404</v>
+      <c r="B42">
+        <v>0.60852600000000001</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>4.16</v>
       </c>
-      <c r="B43" s="1">
-        <f t="shared" si="0"/>
-        <v>0.61909333062674266</v>
+      <c r="B43">
+        <v>0.619093</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>4.26</v>
       </c>
-      <c r="B44" s="1">
-        <f t="shared" si="0"/>
-        <v>0.62940959910271888</v>
+      <c r="B44">
+        <v>0.62941000000000003</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>4.3600000000000003</v>
       </c>
-      <c r="B45" s="1">
-        <f t="shared" si="0"/>
-        <v>0.63948648926858609</v>
+      <c r="B45">
+        <v>0.639486</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>4.46</v>
       </c>
-      <c r="B46" s="1">
-        <f t="shared" si="0"/>
-        <v>0.6493348587121418</v>
+      <c r="B46">
+        <v>0.649335</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>4.5599999999999996</v>
       </c>
-      <c r="B47" s="1">
-        <f t="shared" si="0"/>
-        <v>0.65896484266443489</v>
+      <c r="B47">
+        <v>0.65896500000000002</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>4.66</v>
       </c>
-      <c r="B48" s="1">
-        <f t="shared" si="0"/>
-        <v>0.66838591669000014</v>
+      <c r="B48">
+        <v>0.66838600000000004</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>4.76</v>
       </c>
-      <c r="B49" s="1">
-        <f t="shared" si="0"/>
-        <v>0.67760695272049309</v>
+      <c r="B49">
+        <v>0.67760699999999996</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>4.8600000000000003</v>
       </c>
-      <c r="B50" s="1">
-        <f t="shared" si="0"/>
-        <v>0.68663626926229337</v>
+      <c r="B50">
+        <v>0.68663600000000002</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>4.96</v>
       </c>
-      <c r="B51" s="1">
-        <f t="shared" si="0"/>
-        <v>0.69548167649019732</v>
+      <c r="B51">
+        <v>0.69548200000000004</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>5.0599999999999996</v>
       </c>
-      <c r="B52" s="1">
-        <f t="shared" si="0"/>
-        <v>0.70415051683979901</v>
+      <c r="B52">
+        <v>0.70415099999999997</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>5.16</v>
       </c>
-      <c r="B53" s="1">
-        <f t="shared" si="0"/>
-        <v>0.71264970162721131</v>
+      <c r="B53">
+        <v>0.71265000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>5.26</v>
       </c>
-      <c r="B54" s="1">
-        <f t="shared" si="0"/>
-        <v>0.72098574415373906</v>
+      <c r="B54">
+        <v>0.72098600000000002</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>5.56</v>
       </c>
-      <c r="B55" s="1">
-        <f t="shared" si="0"/>
-        <v>0.74507479158205736</v>
+      <c r="B55">
+        <v>0.74507500000000004</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>5.66</v>
       </c>
-      <c r="B56" s="1">
-        <f t="shared" si="0"/>
-        <v>0.75281643118827135</v>
+      <c r="B56">
+        <v>0.75281600000000004</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>5.76</v>
       </c>
-      <c r="B57" s="1">
-        <f t="shared" si="0"/>
-        <v>0.76042248342321195</v>
+      <c r="B57">
+        <v>0.76042200000000004</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>5.86</v>
       </c>
-      <c r="B58" s="1">
-        <f t="shared" si="0"/>
-        <v>0.76789761601809059</v>
+      <c r="B58">
+        <v>0.76789799999999997</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>5.96</v>
       </c>
-      <c r="B59" s="1">
-        <f t="shared" si="0"/>
-        <v>0.77524625974023631</v>
+      <c r="B59">
+        <v>0.77524599999999999</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>6</v>
       </c>
-      <c r="B60" s="1">
-        <f t="shared" si="0"/>
-        <v>0.77815125038364352</v>
+      <c r="B60">
+        <v>0.77815100000000004</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
@@ -901,5 +848,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>